--- a/Course II/R/Diksi/result/таблица.xlsx
+++ b/Course II/R/Diksi/result/таблица.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="71">
   <si>
     <t>X.</t>
   </si>
@@ -41,21 +41,9 @@
     <t>Продажи мин</t>
   </si>
   <si>
-    <t>День.1</t>
-  </si>
-  <si>
     <t>Списание макс</t>
   </si>
   <si>
-    <t>День.2</t>
-  </si>
-  <si>
-    <t>Название</t>
-  </si>
-  <si>
-    <t>Равномерность продаж</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -92,34 +80,34 @@
     <t>12</t>
   </si>
   <si>
-    <t>Магазин 1</t>
-  </si>
-  <si>
-    <t>Магазин 2</t>
-  </si>
-  <si>
-    <t>Магазин 3</t>
-  </si>
-  <si>
-    <t>Магазин 4</t>
-  </si>
-  <si>
-    <t>Магазин 5</t>
-  </si>
-  <si>
-    <t>Магазин 6</t>
-  </si>
-  <si>
-    <t>Магазин 7</t>
-  </si>
-  <si>
-    <t>Магазин 8</t>
-  </si>
-  <si>
-    <t>Магазин 9</t>
-  </si>
-  <si>
-    <t>Магазин 10</t>
+    <t>shop1</t>
+  </si>
+  <si>
+    <t>shop2</t>
+  </si>
+  <si>
+    <t>shop3</t>
+  </si>
+  <si>
+    <t>shop4</t>
+  </si>
+  <si>
+    <t>shop5</t>
+  </si>
+  <si>
+    <t>shop6</t>
+  </si>
+  <si>
+    <t>shop7</t>
+  </si>
+  <si>
+    <t>shop8</t>
+  </si>
+  <si>
+    <t>shop9</t>
+  </si>
+  <si>
+    <t>shop10</t>
   </si>
   <si>
     <t>Итого</t>
@@ -317,51 +305,27 @@
         <v>8</v>
       </c>
       <c r="K1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
-        <v>10</v>
-      </c>
       <c r="M1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>7</v>
-      </c>
-      <c r="R1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S1" t="s">
-        <v>7</v>
-      </c>
-      <c r="T1" t="s">
-        <v>7</v>
-      </c>
-      <c r="U1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C2" t="n">
-        <v>1.9904E7</v>
+        <v>1.244E7</v>
       </c>
       <c r="D2" t="n">
-        <v>-264100.0</v>
+        <v>9778750.0</v>
       </c>
       <c r="E2" t="n">
         <v>2488.0</v>
@@ -373,60 +337,36 @@
         <v>161.56408134530517</v>
       </c>
       <c r="H2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="I2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="J2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="K2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="L2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="M2" t="s">
-        <v>50</v>
-      </c>
-      <c r="N2" t="s">
-        <v>26</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0.0</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C3" t="n">
-        <v>1.556E7</v>
+        <v>9725000.0</v>
       </c>
       <c r="D3" t="n">
-        <v>933100.0</v>
+        <v>7828050.0</v>
       </c>
       <c r="E3" t="n">
         <v>1945.0</v>
@@ -438,60 +378,36 @@
         <v>248.5433755379723</v>
       </c>
       <c r="H3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="L3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="M3" t="s">
-        <v>51</v>
-      </c>
-      <c r="N3" t="s">
-        <v>27</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0.0</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C4" t="n">
-        <v>2.0256E7</v>
+        <v>1.266E7</v>
       </c>
       <c r="D4" t="n">
-        <v>-431400.0</v>
+        <v>9925500.0</v>
       </c>
       <c r="E4" t="n">
         <v>2532.0</v>
@@ -503,60 +419,36 @@
         <v>259.5057573450695</v>
       </c>
       <c r="H4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="I4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J4" t="s">
+        <v>54</v>
+      </c>
+      <c r="K4" t="s">
         <v>51</v>
       </c>
-      <c r="J4" t="s">
-        <v>58</v>
-      </c>
-      <c r="K4" t="s">
-        <v>55</v>
-      </c>
       <c r="L4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="M4" t="s">
-        <v>49</v>
-      </c>
-      <c r="N4" t="s">
-        <v>28</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0.0</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C5" t="n">
-        <v>1.2976E7</v>
+        <v>8110000.0</v>
       </c>
       <c r="D5" t="n">
-        <v>-4830400.0</v>
+        <v>5625000.0</v>
       </c>
       <c r="E5" t="n">
         <v>1622.0</v>
@@ -568,60 +460,36 @@
         <v>162.71827830713454</v>
       </c>
       <c r="H5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="J5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="K5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="L5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="M5" t="s">
-        <v>54</v>
-      </c>
-      <c r="N5" t="s">
-        <v>29</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0.0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C6" t="n">
-        <v>2.2032E7</v>
+        <v>1.377E7</v>
       </c>
       <c r="D6" t="n">
-        <v>-808600.0</v>
+        <v>1.07411E7</v>
       </c>
       <c r="E6" t="n">
         <v>2754.0</v>
@@ -633,60 +501,36 @@
         <v>151.9812018451154</v>
       </c>
       <c r="H6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="I6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J6" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="L6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="M6" t="s">
-        <v>52</v>
-      </c>
-      <c r="N6" t="s">
-        <v>30</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0.0</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C7" t="n">
-        <v>1.8152E7</v>
+        <v>1.1345E7</v>
       </c>
       <c r="D7" t="n">
-        <v>-8357700.0</v>
+        <v>7611050.0</v>
       </c>
       <c r="E7" t="n">
         <v>2269.0</v>
@@ -698,60 +542,36 @@
         <v>127.4001943633114</v>
       </c>
       <c r="H7" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="I7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="K7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="L7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="M7" t="s">
-        <v>53</v>
-      </c>
-      <c r="N7" t="s">
-        <v>31</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0.0</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C8" t="n">
-        <v>2.2672E7</v>
+        <v>1.417E7</v>
       </c>
       <c r="D8" t="n">
-        <v>-4036500.0</v>
+        <v>1.053715E7</v>
       </c>
       <c r="E8" t="n">
         <v>2834.0</v>
@@ -763,60 +583,36 @@
         <v>270.581736616639</v>
       </c>
       <c r="H8" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J8" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="K8" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="L8" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="M8" t="s">
-        <v>51</v>
-      </c>
-      <c r="N8" t="s">
-        <v>32</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0.0</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C9" t="n">
-        <v>1.6504E7</v>
+        <v>1.0315E7</v>
       </c>
       <c r="D9" t="n">
-        <v>-1273500.0</v>
+        <v>7938550.0</v>
       </c>
       <c r="E9" t="n">
         <v>2063.0</v>
@@ -828,60 +624,36 @@
         <v>177.0806918570498</v>
       </c>
       <c r="H9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" t="s">
+        <v>50</v>
+      </c>
+      <c r="J9" t="s">
+        <v>59</v>
+      </c>
+      <c r="K9" t="s">
+        <v>48</v>
+      </c>
+      <c r="L9" t="s">
+        <v>69</v>
+      </c>
+      <c r="M9" t="s">
         <v>45</v>
-      </c>
-      <c r="I9" t="s">
-        <v>54</v>
-      </c>
-      <c r="J9" t="s">
-        <v>63</v>
-      </c>
-      <c r="K9" t="s">
-        <v>52</v>
-      </c>
-      <c r="L9" t="s">
-        <v>73</v>
-      </c>
-      <c r="M9" t="s">
-        <v>49</v>
-      </c>
-      <c r="N9" t="s">
-        <v>33</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C10" t="n">
-        <v>1.8128E7</v>
+        <v>1.133E7</v>
       </c>
       <c r="D10" t="n">
-        <v>-565400.0</v>
+        <v>8853900.0</v>
       </c>
       <c r="E10" t="n">
         <v>2266.0</v>
@@ -893,60 +665,36 @@
         <v>230.04181814452366</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I10" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J10" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="L10" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="M10" t="s">
-        <v>53</v>
-      </c>
-      <c r="N10" t="s">
-        <v>34</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0.0</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C11" t="n">
-        <v>2.0232E7</v>
+        <v>1.2645E7</v>
       </c>
       <c r="D11" t="n">
-        <v>-7808000.0</v>
+        <v>8725900.0</v>
       </c>
       <c r="E11" t="n">
         <v>2529.0</v>
@@ -958,60 +706,36 @@
         <v>132.39173474417285</v>
       </c>
       <c r="H11" t="s">
+        <v>43</v>
+      </c>
+      <c r="I11" t="s">
+        <v>46</v>
+      </c>
+      <c r="J11" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" t="s">
         <v>47</v>
       </c>
-      <c r="I11" t="s">
-        <v>50</v>
-      </c>
-      <c r="J11" t="s">
-        <v>65</v>
-      </c>
-      <c r="K11" t="s">
-        <v>51</v>
-      </c>
       <c r="L11" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="M11" t="s">
-        <v>50</v>
-      </c>
-      <c r="N11" t="s">
-        <v>35</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0.0</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C12" t="n">
-        <v>1.86416E8</v>
+        <v>1.1651E8</v>
       </c>
       <c r="D12" t="n">
-        <v>-2.74425E7</v>
+        <v>8.756495E7</v>
       </c>
       <c r="E12" t="n">
         <v>23302.0</v>
@@ -1023,60 +747,36 @@
         <v>1921.8088701062936</v>
       </c>
       <c r="H12" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="I12" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="J12" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="K12" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="L12" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="M12" t="s">
-        <v>48</v>
-      </c>
-      <c r="N12" t="s">
-        <v>36</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U12" t="n">
-        <v>0.0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C13" t="n">
-        <v>1.86416E7</v>
+        <v>1.1651E7</v>
       </c>
       <c r="D13" t="n">
-        <v>-2744250.0</v>
+        <v>8756495.0</v>
       </c>
       <c r="E13" t="n">
         <v>2330.2</v>
@@ -1088,46 +788,22 @@
         <v>192.18088701062936</v>
       </c>
       <c r="H13" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="I13" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="J13" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="K13" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="L13" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="M13" t="s">
-        <v>48</v>
-      </c>
-      <c r="N13" t="s">
-        <v>37</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R13" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T13" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U13" t="n">
-        <v>0.0</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/Course II/R/Diksi/result/таблица.xlsx
+++ b/Course II/R/Diksi/result/таблица.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="61">
   <si>
     <t>Магазин</t>
   </si>
@@ -50,36 +50,6 @@
     <t>День макс списания</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
     <t>shop1</t>
   </si>
   <si>
@@ -110,6 +80,45 @@
     <t>shop10</t>
   </si>
   <si>
+    <t>Итог</t>
+  </si>
+  <si>
+    <t>Среднее</t>
+  </si>
+  <si>
+    <t>523</t>
+  </si>
+  <si>
+    <t>706</t>
+  </si>
+  <si>
+    <t>688</t>
+  </si>
+  <si>
+    <t>443</t>
+  </si>
+  <si>
+    <t>592</t>
+  </si>
+  <si>
+    <t>529</t>
+  </si>
+  <si>
+    <t>731</t>
+  </si>
+  <si>
+    <t>571</t>
+  </si>
+  <si>
+    <t>632</t>
+  </si>
+  <si>
+    <t>598</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>Среда</t>
   </si>
   <si>
@@ -129,6 +138,63 @@
   </si>
   <si>
     <t>Вторник</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>139</t>
+  </si>
+  <si>
+    <t>161</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>145</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>156</t>
+  </si>
+  <si>
+    <t>296</t>
+  </si>
+  <si>
+    <t>158</t>
+  </si>
+  <si>
+    <t>288</t>
+  </si>
+  <si>
+    <t>536</t>
+  </si>
+  <si>
+    <t>366</t>
+  </si>
+  <si>
+    <t>640</t>
+  </si>
+  <si>
+    <t>494</t>
+  </si>
+  <si>
+    <t>411</t>
+  </si>
+  <si>
+    <t>630</t>
   </si>
 </sst>
 </file>
@@ -180,41 +246,40 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1"/>
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -222,410 +287,456 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
-        <v>22</v>
+      <c r="B2" t="n">
+        <v>1.9904E7</v>
       </c>
       <c r="C2" t="n">
-        <v>1244000.0</v>
+        <v>1529400.0</v>
       </c>
       <c r="D2" t="n">
-        <v>977875.0</v>
+        <v>2488.0</v>
       </c>
       <c r="E2" t="n">
-        <v>2488.0</v>
+        <v>1099.0</v>
       </c>
       <c r="F2" t="n">
-        <v>1099.0</v>
-      </c>
-      <c r="G2" t="n">
         <v>161.56408134530517</v>
       </c>
-      <c r="H2" t="n">
-        <v>523.0</v>
+      <c r="G2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" t="s">
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J2" t="n">
-        <v>119.0</v>
+        <v>42</v>
+      </c>
+      <c r="J2" t="s">
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>34</v>
-      </c>
-      <c r="L2" t="n">
-        <v>296.0</v>
-      </c>
-      <c r="M2" t="s">
-        <v>33</v>
+        <v>52</v>
+      </c>
+      <c r="L2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" t="s">
-        <v>23</v>
+      <c r="B3" t="n">
+        <v>1.556E7</v>
       </c>
       <c r="C3" t="n">
-        <v>972500.0</v>
+        <v>2238600.0</v>
       </c>
       <c r="D3" t="n">
-        <v>782805.0</v>
+        <v>1945.0</v>
       </c>
       <c r="E3" t="n">
-        <v>1945.0</v>
+        <v>666.0</v>
       </c>
       <c r="F3" t="n">
-        <v>666.0</v>
-      </c>
-      <c r="G3" t="n">
         <v>248.5433755379723</v>
       </c>
-      <c r="H3" t="n">
-        <v>706.0</v>
+      <c r="G3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" t="s">
+        <v>36</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J3" t="n">
-        <v>60.0</v>
+        <v>43</v>
+      </c>
+      <c r="J3" t="s">
+        <v>37</v>
       </c>
       <c r="K3" t="s">
-        <v>34</v>
-      </c>
-      <c r="L3" t="n">
-        <v>158.0</v>
-      </c>
-      <c r="M3" t="s">
-        <v>34</v>
+        <v>53</v>
+      </c>
+      <c r="L3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="B4" t="s">
-        <v>24</v>
+      <c r="B4" t="n">
+        <v>2.0256E7</v>
       </c>
       <c r="C4" t="n">
-        <v>1266000.0</v>
+        <v>1407600.0</v>
       </c>
       <c r="D4" t="n">
-        <v>992550.0</v>
+        <v>2532.0</v>
       </c>
       <c r="E4" t="n">
-        <v>2532.0</v>
+        <v>1146.0</v>
       </c>
       <c r="F4" t="n">
-        <v>1146.0</v>
-      </c>
-      <c r="G4" t="n">
         <v>259.5057573450695</v>
       </c>
-      <c r="H4" t="n">
-        <v>688.0</v>
+      <c r="G4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" t="s">
+        <v>37</v>
       </c>
       <c r="I4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J4" t="n">
-        <v>111.0</v>
+        <v>44</v>
+      </c>
+      <c r="J4" t="s">
+        <v>41</v>
       </c>
       <c r="K4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L4" t="n">
-        <v>288.0</v>
-      </c>
-      <c r="M4" t="s">
-        <v>32</v>
+        <v>54</v>
+      </c>
+      <c r="L4" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="B5" t="s">
-        <v>25</v>
+      <c r="B5" t="n">
+        <v>1.2976E7</v>
       </c>
       <c r="C5" t="n">
-        <v>811000.0</v>
+        <v>-3266400.0</v>
       </c>
       <c r="D5" t="n">
-        <v>562500.0</v>
+        <v>1622.0</v>
       </c>
       <c r="E5" t="n">
-        <v>1622.0</v>
+        <v>1506.0</v>
       </c>
       <c r="F5" t="n">
-        <v>1506.0</v>
-      </c>
-      <c r="G5" t="n">
         <v>162.71827830713454</v>
       </c>
-      <c r="H5" t="n">
-        <v>443.0</v>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" t="s">
+        <v>38</v>
       </c>
       <c r="I5" t="s">
-        <v>35</v>
-      </c>
-      <c r="J5" t="n">
-        <v>32.0</v>
+        <v>45</v>
+      </c>
+      <c r="J5" t="s">
+        <v>39</v>
       </c>
       <c r="K5" t="s">
-        <v>36</v>
-      </c>
-      <c r="L5" t="n">
-        <v>536.0</v>
-      </c>
-      <c r="M5" t="s">
-        <v>37</v>
+        <v>55</v>
+      </c>
+      <c r="L5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
         <v>16</v>
       </c>
-      <c r="B6" t="s">
-        <v>26</v>
+      <c r="B6" t="n">
+        <v>2.2032E7</v>
       </c>
       <c r="C6" t="n">
-        <v>1377000.0</v>
+        <v>1220400.0</v>
       </c>
       <c r="D6" t="n">
-        <v>1074110.0</v>
+        <v>2754.0</v>
       </c>
       <c r="E6" t="n">
-        <v>2754.0</v>
+        <v>1304.0</v>
       </c>
       <c r="F6" t="n">
-        <v>1304.0</v>
-      </c>
-      <c r="G6" t="n">
         <v>151.9812018451154</v>
       </c>
-      <c r="H6" t="n">
-        <v>592.0</v>
+      <c r="G6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" t="s">
+        <v>39</v>
       </c>
       <c r="I6" t="s">
-        <v>36</v>
-      </c>
-      <c r="J6" t="n">
-        <v>139.0</v>
+        <v>46</v>
+      </c>
+      <c r="J6" t="s">
+        <v>40</v>
       </c>
       <c r="K6" t="s">
-        <v>37</v>
-      </c>
-      <c r="L6" t="n">
-        <v>366.0</v>
-      </c>
-      <c r="M6" t="s">
-        <v>35</v>
+        <v>56</v>
+      </c>
+      <c r="L6" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
         <v>17</v>
       </c>
-      <c r="B7" t="s">
-        <v>27</v>
+      <c r="B7" t="n">
+        <v>1.8152E7</v>
       </c>
       <c r="C7" t="n">
-        <v>1134500.0</v>
+        <v>-6034200.0</v>
       </c>
       <c r="D7" t="n">
-        <v>761105.0</v>
+        <v>2269.0</v>
       </c>
       <c r="E7" t="n">
-        <v>2269.0</v>
+        <v>2378.0</v>
       </c>
       <c r="F7" t="n">
-        <v>2378.0</v>
-      </c>
-      <c r="G7" t="n">
         <v>127.4001943633114</v>
       </c>
-      <c r="H7" t="n">
-        <v>529.0</v>
+      <c r="G7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" t="s">
+        <v>36</v>
       </c>
       <c r="I7" t="s">
-        <v>33</v>
-      </c>
-      <c r="J7" t="n">
-        <v>161.0</v>
+        <v>47</v>
+      </c>
+      <c r="J7" t="s">
+        <v>41</v>
       </c>
       <c r="K7" t="s">
-        <v>38</v>
-      </c>
-      <c r="L7" t="n">
-        <v>640.0</v>
-      </c>
-      <c r="M7" t="s">
-        <v>36</v>
+        <v>57</v>
+      </c>
+      <c r="L7" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
         <v>18</v>
       </c>
-      <c r="B8" t="s">
-        <v>28</v>
+      <c r="B8" t="n">
+        <v>2.2672E7</v>
       </c>
       <c r="C8" t="n">
-        <v>1417000.0</v>
+        <v>-1677000.0</v>
       </c>
       <c r="D8" t="n">
-        <v>1053715.0</v>
+        <v>2834.0</v>
       </c>
       <c r="E8" t="n">
-        <v>2834.0</v>
+        <v>1885.0</v>
       </c>
       <c r="F8" t="n">
-        <v>1885.0</v>
-      </c>
-      <c r="G8" t="n">
         <v>270.581736616639</v>
       </c>
-      <c r="H8" t="n">
-        <v>731.0</v>
+      <c r="G8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" t="s">
+        <v>39</v>
       </c>
       <c r="I8" t="s">
-        <v>36</v>
-      </c>
-      <c r="J8" t="n">
-        <v>53.0</v>
+        <v>48</v>
+      </c>
+      <c r="J8" t="s">
+        <v>38</v>
       </c>
       <c r="K8" t="s">
-        <v>35</v>
-      </c>
-      <c r="L8" t="n">
-        <v>494.0</v>
-      </c>
-      <c r="M8" t="s">
-        <v>34</v>
+        <v>58</v>
+      </c>
+      <c r="L8" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
         <v>19</v>
       </c>
-      <c r="B9" t="s">
-        <v>29</v>
+      <c r="B9" t="n">
+        <v>1.6504E7</v>
       </c>
       <c r="C9" t="n">
-        <v>1031500.0</v>
+        <v>303000.0</v>
       </c>
       <c r="D9" t="n">
-        <v>793855.0</v>
+        <v>2063.0</v>
       </c>
       <c r="E9" t="n">
-        <v>2063.0</v>
+        <v>1090.0</v>
       </c>
       <c r="F9" t="n">
-        <v>1090.0</v>
-      </c>
-      <c r="G9" t="n">
         <v>177.0806918570498</v>
       </c>
-      <c r="H9" t="n">
-        <v>571.0</v>
+      <c r="G9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" t="s">
+        <v>40</v>
       </c>
       <c r="I9" t="s">
-        <v>37</v>
-      </c>
-      <c r="J9" t="n">
-        <v>145.0</v>
+        <v>49</v>
+      </c>
+      <c r="J9" t="s">
+        <v>38</v>
       </c>
       <c r="K9" t="s">
+        <v>59</v>
+      </c>
+      <c r="L9" t="s">
         <v>35</v>
-      </c>
-      <c r="L9" t="n">
-        <v>411.0</v>
-      </c>
-      <c r="M9" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
         <v>20</v>
       </c>
-      <c r="B10" t="s">
-        <v>30</v>
+      <c r="B10" t="n">
+        <v>1.8128E7</v>
       </c>
       <c r="C10" t="n">
-        <v>1133000.0</v>
+        <v>1095600.0</v>
       </c>
       <c r="D10" t="n">
-        <v>885390.0</v>
+        <v>2266.0</v>
       </c>
       <c r="E10" t="n">
-        <v>2266.0</v>
+        <v>1056.0</v>
       </c>
       <c r="F10" t="n">
-        <v>1056.0</v>
-      </c>
-      <c r="G10" t="n">
         <v>230.04181814452366</v>
       </c>
-      <c r="H10" t="n">
-        <v>632.0</v>
+      <c r="G10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" t="s">
+        <v>41</v>
       </c>
       <c r="I10" t="s">
-        <v>38</v>
-      </c>
-      <c r="J10" t="n">
-        <v>44.0</v>
+        <v>50</v>
+      </c>
+      <c r="J10" t="s">
+        <v>40</v>
       </c>
       <c r="K10" t="s">
-        <v>37</v>
-      </c>
-      <c r="L10" t="n">
-        <v>529.0</v>
-      </c>
-      <c r="M10" t="s">
-        <v>36</v>
+        <v>29</v>
+      </c>
+      <c r="L10" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
         <v>21</v>
       </c>
-      <c r="B11" t="s">
-        <v>31</v>
+      <c r="B11" t="n">
+        <v>2.0232E7</v>
       </c>
       <c r="C11" t="n">
-        <v>1264500.0</v>
+        <v>-5346000.0</v>
       </c>
       <c r="D11" t="n">
-        <v>872590.0</v>
+        <v>2529.0</v>
       </c>
       <c r="E11" t="n">
-        <v>2529.0</v>
+        <v>2395.0</v>
       </c>
       <c r="F11" t="n">
-        <v>2395.0</v>
-      </c>
-      <c r="G11" t="n">
         <v>132.39173474417285</v>
       </c>
-      <c r="H11" t="n">
-        <v>598.0</v>
+      <c r="G11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" t="s">
+        <v>35</v>
       </c>
       <c r="I11" t="s">
-        <v>32</v>
-      </c>
-      <c r="J11" t="n">
-        <v>156.0</v>
+        <v>51</v>
+      </c>
+      <c r="J11" t="s">
+        <v>37</v>
       </c>
       <c r="K11" t="s">
-        <v>34</v>
-      </c>
-      <c r="L11" t="n">
-        <v>630.0</v>
-      </c>
-      <c r="M11" t="s">
-        <v>33</v>
+        <v>60</v>
+      </c>
+      <c r="L11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1.86416E8</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-8529000.0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>23302.0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>14525.0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1921.8088701062936</v>
+      </c>
+      <c r="G12" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12" t="s">
+        <v>34</v>
+      </c>
+      <c r="J12" t="s">
+        <v>34</v>
+      </c>
+      <c r="K12" t="s">
+        <v>34</v>
+      </c>
+      <c r="L12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1.86416E7</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-852900.0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2330.2</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1452.5</v>
+      </c>
+      <c r="F13" t="n">
+        <v>192.18088701062936</v>
+      </c>
+      <c r="G13" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13" t="s">
+        <v>34</v>
+      </c>
+      <c r="J13" t="s">
+        <v>34</v>
+      </c>
+      <c r="K13" t="s">
+        <v>34</v>
+      </c>
+      <c r="L13" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Course II/R/Diksi/result/таблица.xlsx
+++ b/Course II/R/Diksi/result/таблица.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="57">
   <si>
     <t>Магазин</t>
   </si>
@@ -86,115 +86,103 @@
     <t>Среднее</t>
   </si>
   <si>
-    <t>523</t>
-  </si>
-  <si>
-    <t>706</t>
-  </si>
-  <si>
-    <t>688</t>
-  </si>
-  <si>
-    <t>443</t>
-  </si>
-  <si>
-    <t>592</t>
-  </si>
-  <si>
-    <t>529</t>
-  </si>
-  <si>
-    <t>731</t>
-  </si>
-  <si>
-    <t>571</t>
-  </si>
-  <si>
-    <t>632</t>
-  </si>
-  <si>
-    <t>598</t>
+    <t>115</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>132</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>129</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
+    <t>Воскресенье</t>
+  </si>
+  <si>
     <t>Среда</t>
   </si>
   <si>
+    <t>Пятница</t>
+  </si>
+  <si>
     <t>Понедельник</t>
   </si>
   <si>
-    <t>Воскресенье</t>
-  </si>
-  <si>
-    <t>Пятница</t>
+    <t>Суббота</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>Вторник</t>
   </si>
   <si>
     <t>Четверг</t>
   </si>
   <si>
-    <t>Суббота</t>
-  </si>
-  <si>
-    <t>Вторник</t>
-  </si>
-  <si>
-    <t>119</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>111</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>139</t>
-  </si>
-  <si>
-    <t>161</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>145</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>156</t>
-  </si>
-  <si>
-    <t>296</t>
-  </si>
-  <si>
-    <t>158</t>
-  </si>
-  <si>
-    <t>288</t>
-  </si>
-  <si>
-    <t>536</t>
-  </si>
-  <si>
-    <t>366</t>
-  </si>
-  <si>
-    <t>640</t>
-  </si>
-  <si>
-    <t>494</t>
-  </si>
-  <si>
-    <t>411</t>
-  </si>
-  <si>
-    <t>630</t>
+    <t>31</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>30</t>
   </si>
 </sst>
 </file>
@@ -288,19 +276,19 @@
         <v>12</v>
       </c>
       <c r="B2" t="n">
-        <v>1.9904E7</v>
+        <v>4168000.0</v>
       </c>
       <c r="C2" t="n">
-        <v>1529400.0</v>
+        <v>1066200.0</v>
       </c>
       <c r="D2" t="n">
-        <v>2488.0</v>
+        <v>521.0</v>
       </c>
       <c r="E2" t="n">
-        <v>1099.0</v>
+        <v>92.0</v>
       </c>
       <c r="F2" t="n">
-        <v>161.56408134530517</v>
+        <v>26.76351461011267</v>
       </c>
       <c r="G2" t="s">
         <v>24</v>
@@ -309,16 +297,16 @@
         <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3">
@@ -326,19 +314,19 @@
         <v>13</v>
       </c>
       <c r="B3" t="n">
-        <v>1.556E7</v>
+        <v>4288000.0</v>
       </c>
       <c r="C3" t="n">
-        <v>2238600.0</v>
+        <v>1105800.0</v>
       </c>
       <c r="D3" t="n">
-        <v>1945.0</v>
+        <v>536.0</v>
       </c>
       <c r="E3" t="n">
-        <v>666.0</v>
+        <v>93.0</v>
       </c>
       <c r="F3" t="n">
-        <v>248.5433755379723</v>
+        <v>16.338677454199924</v>
       </c>
       <c r="G3" t="s">
         <v>25</v>
@@ -347,13 +335,13 @@
         <v>36</v>
       </c>
       <c r="I3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J3" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="K3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L3" t="s">
         <v>37</v>
@@ -364,19 +352,19 @@
         <v>14</v>
       </c>
       <c r="B4" t="n">
-        <v>2.0256E7</v>
+        <v>4744000.0</v>
       </c>
       <c r="C4" t="n">
-        <v>1407600.0</v>
+        <v>1217400.0</v>
       </c>
       <c r="D4" t="n">
-        <v>2532.0</v>
+        <v>593.0</v>
       </c>
       <c r="E4" t="n">
-        <v>1146.0</v>
+        <v>104.0</v>
       </c>
       <c r="F4" t="n">
-        <v>259.5057573450695</v>
+        <v>38.99877897966502</v>
       </c>
       <c r="G4" t="s">
         <v>26</v>
@@ -385,16 +373,16 @@
         <v>37</v>
       </c>
       <c r="I4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L4" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5">
@@ -402,37 +390,37 @@
         <v>15</v>
       </c>
       <c r="B5" t="n">
-        <v>1.2976E7</v>
+        <v>4960000.0</v>
       </c>
       <c r="C5" t="n">
-        <v>-3266400.0</v>
+        <v>1249800.0</v>
       </c>
       <c r="D5" t="n">
-        <v>1622.0</v>
+        <v>620.0</v>
       </c>
       <c r="E5" t="n">
-        <v>1506.0</v>
+        <v>113.0</v>
       </c>
       <c r="F5" t="n">
-        <v>162.71827830713454</v>
+        <v>34.95166730814208</v>
       </c>
       <c r="G5" t="s">
         <v>27</v>
       </c>
       <c r="H5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J5" t="s">
         <v>39</v>
       </c>
       <c r="K5" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="L5" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6">
@@ -440,37 +428,37 @@
         <v>16</v>
       </c>
       <c r="B6" t="n">
-        <v>2.2032E7</v>
+        <v>4312000.0</v>
       </c>
       <c r="C6" t="n">
-        <v>1220400.0</v>
+        <v>1087800.0</v>
       </c>
       <c r="D6" t="n">
-        <v>2754.0</v>
+        <v>539.0</v>
       </c>
       <c r="E6" t="n">
-        <v>1304.0</v>
+        <v>98.0</v>
       </c>
       <c r="F6" t="n">
-        <v>151.9812018451154</v>
+        <v>43.36665385600631</v>
       </c>
       <c r="G6" t="s">
         <v>28</v>
       </c>
       <c r="H6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6" t="s">
+        <v>37</v>
+      </c>
+      <c r="K6" t="s">
         <v>46</v>
       </c>
-      <c r="J6" t="s">
-        <v>40</v>
-      </c>
-      <c r="K6" t="s">
-        <v>56</v>
-      </c>
       <c r="L6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7">
@@ -478,37 +466,37 @@
         <v>17</v>
       </c>
       <c r="B7" t="n">
-        <v>1.8152E7</v>
+        <v>3720000.0</v>
       </c>
       <c r="C7" t="n">
-        <v>-6034200.0</v>
+        <v>952200.0</v>
       </c>
       <c r="D7" t="n">
-        <v>2269.0</v>
+        <v>465.0</v>
       </c>
       <c r="E7" t="n">
-        <v>2378.0</v>
+        <v>82.0</v>
       </c>
       <c r="F7" t="n">
-        <v>127.4001943633114</v>
+        <v>29.3533481500671</v>
       </c>
       <c r="G7" t="s">
         <v>29</v>
       </c>
       <c r="H7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="L7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8">
@@ -516,37 +504,37 @@
         <v>18</v>
       </c>
       <c r="B8" t="n">
-        <v>2.2672E7</v>
+        <v>5408000.0</v>
       </c>
       <c r="C8" t="n">
-        <v>-1677000.0</v>
+        <v>1374600.0</v>
       </c>
       <c r="D8" t="n">
-        <v>2834.0</v>
+        <v>676.0</v>
       </c>
       <c r="E8" t="n">
-        <v>1885.0</v>
+        <v>121.0</v>
       </c>
       <c r="F8" t="n">
-        <v>270.581736616639</v>
+        <v>37.68225551837869</v>
       </c>
       <c r="G8" t="s">
         <v>30</v>
       </c>
       <c r="H8" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="J8" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="K8" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="L8" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9">
@@ -554,37 +542,37 @@
         <v>19</v>
       </c>
       <c r="B9" t="n">
-        <v>1.6504E7</v>
+        <v>3832000.0</v>
       </c>
       <c r="C9" t="n">
-        <v>303000.0</v>
+        <v>967200.0</v>
       </c>
       <c r="D9" t="n">
-        <v>2063.0</v>
+        <v>479.0</v>
       </c>
       <c r="E9" t="n">
-        <v>1090.0</v>
+        <v>87.0</v>
       </c>
       <c r="F9" t="n">
-        <v>177.0806918570498</v>
+        <v>24.534717869834594</v>
       </c>
       <c r="G9" t="s">
         <v>31</v>
       </c>
       <c r="H9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I9" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J9" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="L9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10">
@@ -592,37 +580,37 @@
         <v>20</v>
       </c>
       <c r="B10" t="n">
-        <v>1.8128E7</v>
+        <v>3984000.0</v>
       </c>
       <c r="C10" t="n">
-        <v>1095600.0</v>
+        <v>1013400.0</v>
       </c>
       <c r="D10" t="n">
-        <v>2266.0</v>
+        <v>498.0</v>
       </c>
       <c r="E10" t="n">
-        <v>1056.0</v>
+        <v>89.0</v>
       </c>
       <c r="F10" t="n">
-        <v>230.04181814452366</v>
+        <v>30.525555258005117</v>
       </c>
       <c r="G10" t="s">
         <v>32</v>
       </c>
       <c r="H10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I10" t="s">
+        <v>47</v>
+      </c>
+      <c r="J10" t="s">
         <v>50</v>
       </c>
-      <c r="J10" t="s">
-        <v>40</v>
-      </c>
       <c r="K10" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="L10" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11">
@@ -630,37 +618,37 @@
         <v>21</v>
       </c>
       <c r="B11" t="n">
-        <v>2.0232E7</v>
+        <v>4816000.0</v>
       </c>
       <c r="C11" t="n">
-        <v>-5346000.0</v>
+        <v>1217400.0</v>
       </c>
       <c r="D11" t="n">
-        <v>2529.0</v>
+        <v>602.0</v>
       </c>
       <c r="E11" t="n">
-        <v>2395.0</v>
+        <v>109.0</v>
       </c>
       <c r="F11" t="n">
-        <v>132.39173474417285</v>
+        <v>30.19381835188565</v>
       </c>
       <c r="G11" t="s">
         <v>33</v>
       </c>
       <c r="H11" t="s">
+        <v>37</v>
+      </c>
+      <c r="I11" t="s">
+        <v>48</v>
+      </c>
+      <c r="J11" t="s">
+        <v>36</v>
+      </c>
+      <c r="K11" t="s">
+        <v>46</v>
+      </c>
+      <c r="L11" t="s">
         <v>35</v>
-      </c>
-      <c r="I11" t="s">
-        <v>51</v>
-      </c>
-      <c r="J11" t="s">
-        <v>37</v>
-      </c>
-      <c r="K11" t="s">
-        <v>60</v>
-      </c>
-      <c r="L11" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="12">
@@ -668,19 +656,19 @@
         <v>22</v>
       </c>
       <c r="B12" t="n">
-        <v>1.86416E8</v>
+        <v>4.4232E7</v>
       </c>
       <c r="C12" t="n">
-        <v>-8529000.0</v>
+        <v>1.12518E7</v>
       </c>
       <c r="D12" t="n">
-        <v>23302.0</v>
+        <v>5529.0</v>
       </c>
       <c r="E12" t="n">
-        <v>14525.0</v>
+        <v>988.0</v>
       </c>
       <c r="F12" t="n">
-        <v>1921.8088701062936</v>
+        <v>312.70898735629714</v>
       </c>
       <c r="G12" t="s">
         <v>34</v>
@@ -706,19 +694,19 @@
         <v>23</v>
       </c>
       <c r="B13" t="n">
-        <v>1.86416E7</v>
+        <v>4423200.0</v>
       </c>
       <c r="C13" t="n">
-        <v>-852900.0</v>
+        <v>1125180.0</v>
       </c>
       <c r="D13" t="n">
-        <v>2330.2</v>
+        <v>552.9</v>
       </c>
       <c r="E13" t="n">
-        <v>1452.5</v>
+        <v>98.8</v>
       </c>
       <c r="F13" t="n">
-        <v>192.18088701062936</v>
+        <v>31.270898735629714</v>
       </c>
       <c r="G13" t="s">
         <v>34</v>
